--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_32.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2956716.281160296</v>
+        <v>2953698.69075936</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665969</v>
       </c>
     </row>
     <row r="9">
@@ -674,7 +674,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>284.3847470051799</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>14.94037681563402</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -820,10 +820,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -859,22 +859,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>197.850908719582</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>79.57033125550491</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>266.4444139167489</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>108.9701216524063</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1096,25 +1096,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>126.0887386816666</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>229.5889480231529</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>129.410516406004</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>82.59930608814281</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,13 +1333,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,10 +1348,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>160.2491677474086</v>
       </c>
       <c r="W10" t="n">
-        <v>206.0181681025918</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1528,25 +1528,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>59.21265291199742</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1768,7 +1768,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>32.66253066420187</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,16 +1816,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>104.53504310106</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1901,7 +1901,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>9.757478881200866</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,10 +2014,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>29.32201570294595</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,25 +2047,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2245,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>105.5303094322326</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,10 +2254,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>24.01153903325422</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2333,7 +2333,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
-        <v>305.2872491113178</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
         <v>81.77913505274074</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,13 +2476,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>222.4601965192587</v>
+        <v>88.86494278824938</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2561,7 +2561,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722634</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>48.07630641561509</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>118.4898845065128</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2798,7 +2798,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648052002</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>115.526976800218</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>198.7261734556707</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3044,7 +3044,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
         <v>81.77913505274074</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,19 +3184,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>115.526976800218</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>11.77373557727618</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3241,10 +3241,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3323,7 +3323,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701364</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,19 +3424,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>78.77172316028877</v>
+        <v>48.54170539482531</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3566,7 +3566,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784703</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3667,7 +3667,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,25 +3706,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>216.3688193949613</v>
       </c>
       <c r="U40" t="n">
-        <v>261.4378214078499</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113173</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274066</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,16 +3788,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051987</v>
       </c>
       <c r="T41" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U41" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498026</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3806,7 +3806,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,19 +3943,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>143.3339115834308</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>76.31784138894733</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H44" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274171</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4031,10 +4031,10 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498009</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4043,7 +4043,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.237938656055</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,19 +4132,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>33.3514698018592</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,10 +4183,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4195,13 +4195,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>8.621129846520214</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>919.5755868835438</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>919.5755868835438</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>919.5755868835438</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>919.5755868835438</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>912.6300861343403</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>494.6662780325272</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,16 +4328,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533145</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733133</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224082</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
         <v>1836.345445977175</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X2" t="n">
-        <v>1309.714918859356</v>
+        <v>1349.6523186161</v>
       </c>
       <c r="Y2" t="n">
-        <v>919.5755868835438</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4398,40 +4398,40 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>498.8626623130036</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="C4" t="n">
-        <v>498.8626623130036</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="D4" t="n">
-        <v>348.7460229006679</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>498.8626623130036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>498.8626623130036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>498.8626623130036</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V4" t="n">
-        <v>498.8626623130036</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="W4" t="n">
-        <v>498.8626623130036</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="X4" t="n">
-        <v>498.8626623130036</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="Y4" t="n">
-        <v>498.8626623130036</v>
+        <v>358.5813018857447</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1749.341643278937</v>
+        <v>1116.950579244872</v>
       </c>
       <c r="C5" t="n">
-        <v>1749.341643278937</v>
+        <v>747.9880623044608</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862885</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V5" t="n">
-        <v>2212.181128500977</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W5" t="n">
-        <v>1859.412473230863</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="X5" t="n">
-        <v>1859.412473230863</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="Y5" t="n">
-        <v>1749.341643278937</v>
+        <v>1503.550419308994</v>
       </c>
     </row>
     <row r="6">
@@ -4641,7 +4641,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T7" t="n">
-        <v>571.3497027553424</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U7" t="n">
-        <v>571.3497027553424</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V7" t="n">
-        <v>571.3497027553424</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
         <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1579.049931616194</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="C8" t="n">
-        <v>1210.087414675782</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D8" t="n">
-        <v>1210.087414675782</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,10 +4805,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.48357412947</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W8" t="n">
-        <v>1662.48357412947</v>
+        <v>1762.972057945408</v>
       </c>
       <c r="X8" t="n">
-        <v>1662.48357412947</v>
+        <v>1762.972057945408</v>
       </c>
       <c r="Y8" t="n">
-        <v>1579.049931616194</v>
+        <v>1762.972057945408</v>
       </c>
     </row>
     <row r="9">
@@ -4857,40 +4857,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4902,22 +4902,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>235.9284171545818</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="C10" t="n">
-        <v>235.9284171545818</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D10" t="n">
-        <v>235.9284171545818</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600564</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600564</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600564</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V10" t="n">
-        <v>444.0275768541695</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="W10" t="n">
-        <v>235.9284171545818</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9284171545818</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="Y10" t="n">
-        <v>235.9284171545818</v>
+        <v>351.9727148150933</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5033,19 +5033,19 @@
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823783</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5054,7 +5054,7 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
         <v>4454.632848899127</v>
@@ -5084,7 +5084,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>233.7852434110089</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>644.6755122555215</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>891.4406401619856</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M12" t="n">
-        <v>1198.760773441947</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N12" t="n">
-        <v>1528.62340110598</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>939.0590370781805</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>770.1228541502736</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>620.0062147379379</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>472.0931211555447</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>325.2031736576344</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>157.027851977455</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>157.027851977455</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1382.222354598086</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1158.436939387592</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U13" t="n">
-        <v>869.3083006011506</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V13" t="n">
-        <v>614.6238123952637</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W13" t="n">
-        <v>325.2066423583032</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028584</v>
+        <v>1159.851616221711</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>939.0590370781805</v>
       </c>
     </row>
     <row r="14">
@@ -5264,43 +5264,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5352,7 +5352,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
         <v>138.7081686256435</v>
@@ -5361,13 +5361,13 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O15" t="n">
         <v>2331.418122136705</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>266.1532743881928</v>
+        <v>560.7969603949465</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>391.8607774670396</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>241.7441380547039</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>241.7441380547039</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>241.7441380547039</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>241.7441380547039</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5440,10 +5440,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5464,22 +5464,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U16" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V16" t="n">
-        <v>820.5263570570736</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W16" t="n">
-        <v>714.9354044297403</v>
+        <v>1009.579090436494</v>
       </c>
       <c r="X16" t="n">
-        <v>486.9458535317229</v>
+        <v>781.5895395384766</v>
       </c>
       <c r="Y16" t="n">
-        <v>266.1532743881928</v>
+        <v>560.7969603949465</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,28 +5498,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5534,7 +5534,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5592,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2361.490124716568</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>441.900558318119</v>
+        <v>554.4977260965289</v>
       </c>
       <c r="C19" t="n">
-        <v>441.900558318119</v>
+        <v>544.6416868225887</v>
       </c>
       <c r="D19" t="n">
-        <v>441.900558318119</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E19" t="n">
-        <v>441.900558318119</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F19" t="n">
-        <v>295.0106108202086</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G19" t="n">
-        <v>126.8352891400292</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609664</v>
+        <v>964.135741824786</v>
       </c>
       <c r="V19" t="n">
-        <v>731.3177283550796</v>
+        <v>964.135741824786</v>
       </c>
       <c r="W19" t="n">
-        <v>441.900558318119</v>
+        <v>964.135741824786</v>
       </c>
       <c r="X19" t="n">
-        <v>441.900558318119</v>
+        <v>736.1461909267687</v>
       </c>
       <c r="Y19" t="n">
-        <v>441.900558318119</v>
+        <v>736.1461909267687</v>
       </c>
     </row>
     <row r="20">
@@ -5726,49 +5726,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5777,25 +5777,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5829,28 +5829,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L21" t="n">
-        <v>891.4406401619858</v>
+        <v>806.1650729342607</v>
       </c>
       <c r="M21" t="n">
-        <v>1198.760773441947</v>
+        <v>1113.485206214222</v>
       </c>
       <c r="N21" t="n">
-        <v>1528.62340110598</v>
+        <v>1443.347833878255</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>465.7659634441654</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>465.7659634441654</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>465.7659634441654</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1474.662190726332</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1274.742180641885</v>
       </c>
       <c r="T22" t="n">
-        <v>1298.996260473455</v>
+        <v>1050.956765431391</v>
       </c>
       <c r="U22" t="n">
-        <v>1009.867621687013</v>
+        <v>1050.956765431391</v>
       </c>
       <c r="V22" t="n">
-        <v>755.183133481126</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="W22" t="n">
-        <v>465.7659634441654</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X22" t="n">
-        <v>465.7659634441654</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y22" t="n">
-        <v>465.7659634441654</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
         <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028587</v>
@@ -5990,16 +5990,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6008,31 +6008,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690734</v>
       </c>
       <c r="C24" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409607</v>
       </c>
       <c r="D24" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748356</v>
       </c>
       <c r="E24" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.0874327429</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769785</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.62619637397</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805658</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>2334.498159098442</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>2375.989236263799</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>2786.879505108312</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>3033.644633014776</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>3484.747546292012</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>4289.159124556163</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>4568.69918977486</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>4773.72167055707</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R24" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S24" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098068</v>
       </c>
       <c r="T24" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021846</v>
       </c>
       <c r="U24" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641233</v>
       </c>
       <c r="V24" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.77681940949</v>
       </c>
       <c r="W24" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681289</v>
       </c>
       <c r="X24" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475756</v>
       </c>
       <c r="Y24" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710802</v>
       </c>
     </row>
     <row r="25">
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3757.185126911404</v>
+        <v>3778.208216256919</v>
       </c>
       <c r="C25" t="n">
-        <v>3757.185126911404</v>
+        <v>3609.272033329012</v>
       </c>
       <c r="D25" t="n">
-        <v>3607.068487499069</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="E25" t="n">
-        <v>3459.155393916676</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="F25" t="n">
-        <v>3459.155393916676</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916676</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916676</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916676</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380585</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625197</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636326</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403509</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N25" t="n">
         <v>4411.546387431057</v>
@@ -6169,28 +6169,28 @@
         <v>4860.854573014293</v>
       </c>
       <c r="R25" t="n">
-        <v>4749.779469576119</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S25" t="n">
-        <v>4749.779469576119</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="T25" t="n">
-        <v>4525.994054365625</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="U25" t="n">
-        <v>4301.286785154252</v>
+        <v>4771.092004541314</v>
       </c>
       <c r="V25" t="n">
-        <v>4046.602296948365</v>
+        <v>4516.407516335427</v>
       </c>
       <c r="W25" t="n">
-        <v>3757.185126911404</v>
+        <v>4226.990346298467</v>
       </c>
       <c r="X25" t="n">
-        <v>3757.185126911404</v>
+        <v>3999.000795400449</v>
       </c>
       <c r="Y25" t="n">
-        <v>3757.185126911404</v>
+        <v>3778.208216256919</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6200,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6221,55 +6221,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6300,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>549.5984374701562</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L27" t="n">
-        <v>796.3635653766204</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M27" t="n">
-        <v>1103.683698656582</v>
+        <v>1564.731711769082</v>
       </c>
       <c r="N27" t="n">
-        <v>1433.546326320615</v>
+        <v>1894.594339433115</v>
       </c>
       <c r="O27" t="n">
-        <v>2103.010087623275</v>
+        <v>2174.134404651812</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2379.156885434021</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3459.155393916677</v>
+        <v>4085.456965641974</v>
       </c>
       <c r="C28" t="n">
-        <v>3459.155393916677</v>
+        <v>4036.895039969635</v>
       </c>
       <c r="D28" t="n">
-        <v>3459.155393916677</v>
+        <v>3886.7784005573</v>
       </c>
       <c r="E28" t="n">
-        <v>3459.155393916677</v>
+        <v>3738.865306974907</v>
       </c>
       <c r="F28" t="n">
-        <v>3459.155393916677</v>
+        <v>3738.865306974907</v>
       </c>
       <c r="G28" t="n">
-        <v>3459.155393916677</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916677</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916677</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380586</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625198</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636327</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.00227840351</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431058</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436455</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042138</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014294</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S28" t="n">
-        <v>4860.854573014294</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="T28" t="n">
-        <v>4741.167820987514</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="U28" t="n">
-        <v>4452.039182201072</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="V28" t="n">
-        <v>4197.354693995185</v>
+        <v>4495.094981370231</v>
       </c>
       <c r="W28" t="n">
-        <v>3907.937523958224</v>
+        <v>4495.094981370231</v>
       </c>
       <c r="X28" t="n">
-        <v>3679.947973060207</v>
+        <v>4267.105430472214</v>
       </c>
       <c r="Y28" t="n">
-        <v>3459.155393916677</v>
+        <v>4267.105430472214</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6458,34 +6458,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6497,16 +6497,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6537,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.428562457161</v>
+        <v>316.9584588710876</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636251</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.37645130762</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028589</v>
+        <v>584.7466045204288</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028589</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028589</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028589</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028589</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028589</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6637,34 +6637,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1382.222354598087</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>987.1876484941987</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011507</v>
+        <v>987.1876484941987</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952638</v>
+        <v>987.1876484941987</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>987.1876484941987</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028589</v>
+        <v>987.1876484941987</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028589</v>
+        <v>766.3950693506686</v>
       </c>
     </row>
     <row r="32">
@@ -6674,37 +6674,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6713,37 +6713,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6774,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636251</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.37645130762</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O33" t="n">
-        <v>2123.441607278215</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,40 +6832,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028587</v>
+        <v>576.0756695821905</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028587</v>
+        <v>407.1394866542836</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028587</v>
+        <v>257.0228472419478</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028587</v>
+        <v>109.1097536595547</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6874,34 +6874,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347409</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>986.0022165609669</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V34" t="n">
-        <v>731.31772835508</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W34" t="n">
-        <v>441.9005583181194</v>
+        <v>985.7136853104475</v>
       </c>
       <c r="X34" t="n">
-        <v>213.9110074201021</v>
+        <v>757.7241344124302</v>
       </c>
       <c r="Y34" t="n">
-        <v>213.9110074201021</v>
+        <v>757.7241344124302</v>
       </c>
     </row>
     <row r="35">
@@ -6932,13 +6932,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6950,25 +6950,25 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
         <v>3931.294970121731</v>
@@ -7011,28 +7011,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>857.5427825698952</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.37645130762</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O36" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>524.5778132641557</v>
+        <v>3888.981946387242</v>
       </c>
       <c r="C37" t="n">
-        <v>355.6416303362487</v>
+        <v>3888.981946387242</v>
       </c>
       <c r="D37" t="n">
-        <v>355.6416303362487</v>
+        <v>3738.865306974907</v>
       </c>
       <c r="E37" t="n">
-        <v>355.6416303362487</v>
+        <v>3738.865306974907</v>
       </c>
       <c r="F37" t="n">
-        <v>208.7516828383384</v>
+        <v>3738.865306974907</v>
       </c>
       <c r="G37" t="n">
-        <v>208.7516828383384</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028589</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241958</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688073</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471194</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N37" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585747</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R37" t="n">
-        <v>1419.348873426298</v>
+        <v>4811.822547362954</v>
       </c>
       <c r="S37" t="n">
-        <v>1219.42886334185</v>
+        <v>4811.822547362954</v>
       </c>
       <c r="T37" t="n">
-        <v>995.6434481313561</v>
+        <v>4588.03713215246</v>
       </c>
       <c r="U37" t="n">
-        <v>995.6434481313561</v>
+        <v>4588.03713215246</v>
       </c>
       <c r="V37" t="n">
-        <v>995.6434481313561</v>
+        <v>4588.03713215246</v>
       </c>
       <c r="W37" t="n">
-        <v>706.2262780943954</v>
+        <v>4298.619962115499</v>
       </c>
       <c r="X37" t="n">
-        <v>706.2262780943954</v>
+        <v>4070.630411217482</v>
       </c>
       <c r="Y37" t="n">
-        <v>706.2262780943954</v>
+        <v>4070.630411217482</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
@@ -7187,37 +7187,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7248,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636251</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.37645130762</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526317</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>358.8683222506741</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="C40" t="n">
-        <v>358.8683222506741</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D40" t="n">
-        <v>208.7516828383384</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7348,34 +7348,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1387.841167119728</v>
+        <v>1280.361907532689</v>
       </c>
       <c r="U40" t="n">
-        <v>1123.762559637052</v>
+        <v>1280.361907532689</v>
       </c>
       <c r="V40" t="n">
-        <v>869.0780714311647</v>
+        <v>1025.677419326802</v>
       </c>
       <c r="W40" t="n">
-        <v>579.6609013942042</v>
+        <v>1025.677419326802</v>
       </c>
       <c r="X40" t="n">
-        <v>579.6609013942042</v>
+        <v>797.6878684287846</v>
       </c>
       <c r="Y40" t="n">
-        <v>358.8683222506741</v>
+        <v>576.8952892852544</v>
       </c>
     </row>
     <row r="41">
@@ -7385,46 +7385,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155881</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P41" t="n">
         <v>4454.632848899128</v>
@@ -7433,28 +7433,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690734</v>
       </c>
       <c r="C42" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409607</v>
       </c>
       <c r="D42" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748356</v>
       </c>
       <c r="E42" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.0874327429</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769785</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.62619637397</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805658</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028589</v>
+        <v>2334.498159098442</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126483</v>
+        <v>2375.989236263799</v>
       </c>
       <c r="K42" t="n">
-        <v>674.428562457161</v>
+        <v>2525.058920465859</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636251</v>
+        <v>2771.824048372323</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>3079.144181652285</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.37645130762</v>
+        <v>3883.555759916435</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526317</v>
+        <v>4553.019521219095</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>4758.042002001304</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>4850.224560916993</v>
       </c>
       <c r="R42" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S42" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098068</v>
       </c>
       <c r="T42" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021846</v>
       </c>
       <c r="U42" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641233</v>
       </c>
       <c r="V42" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.77681940949</v>
       </c>
       <c r="W42" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681289</v>
       </c>
       <c r="X42" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475756</v>
       </c>
       <c r="Y42" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710802</v>
       </c>
     </row>
     <row r="43">
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>861.4909633328887</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="C43" t="n">
-        <v>692.5547804049818</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="D43" t="n">
-        <v>542.438140992646</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="E43" t="n">
-        <v>394.5250474102529</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="F43" t="n">
-        <v>247.6350999123426</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G43" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
         <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7585,34 +7585,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1187.921157035281</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>1187.921157035281</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V43" t="n">
-        <v>1043.139428163128</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W43" t="n">
-        <v>1043.139428163128</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="X43" t="n">
-        <v>1043.139428163128</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="Y43" t="n">
-        <v>1043.139428163128</v>
+        <v>708.9934778008143</v>
       </c>
     </row>
     <row r="44">
@@ -7625,25 +7625,25 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D44" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155897</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805479</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822472</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
@@ -7661,34 +7661,34 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614725</v>
@@ -7722,25 +7722,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.428562457161</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636251</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.37645130762</v>
+        <v>1443.347833878255</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526317</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P45" t="n">
         <v>2317.834075963124</v>
@@ -7780,40 +7780,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>130.9054447954972</v>
+        <v>653.6713633309776</v>
       </c>
       <c r="C46" t="n">
-        <v>130.9054447954972</v>
+        <v>653.6713633309776</v>
       </c>
       <c r="D46" t="n">
-        <v>130.9054447954972</v>
+        <v>503.5547239186419</v>
       </c>
       <c r="E46" t="n">
-        <v>130.9054447954972</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F46" t="n">
-        <v>130.9054447954972</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G46" t="n">
-        <v>130.9054447954972</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H46" t="n">
-        <v>130.9054447954972</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
         <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7822,34 +7822,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.921157035281</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T46" t="n">
-        <v>964.1357418247865</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U46" t="n">
-        <v>675.0071030383447</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V46" t="n">
-        <v>420.3226148324578</v>
+        <v>844.0280401273993</v>
       </c>
       <c r="W46" t="n">
-        <v>130.9054447954972</v>
+        <v>844.0280401273993</v>
       </c>
       <c r="X46" t="n">
-        <v>130.9054447954972</v>
+        <v>844.0280401273993</v>
       </c>
       <c r="Y46" t="n">
-        <v>130.9054447954972</v>
+        <v>835.3198281612173</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8073,10 +8073,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992665</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747122</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142015</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>435.9238900028825</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8766,28 +8766,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>96.03744927814688</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>124.3400780863228</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445217</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -8936,7 +8936,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119852</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9009,16 +9009,16 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>423.3376789165115</v>
+        <v>124.3400780863226</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9240,10 +9240,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9255,16 +9255,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>176.7176547498452</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9404,7 +9404,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504502</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9477,13 +9477,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>360.5026862907258</v>
+        <v>148.2747143566551</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9492,16 +9492,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9656,7 +9656,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599058</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9723,22 +9723,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>145.2351313103786</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.7164198729829</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9960,22 +9960,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>230.7151863772029</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>158.8724419039329</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,31 +10188,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>29.47535963978214</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,13 +10425,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10440,16 +10440,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>288.4091825776746</v>
+        <v>199.7396287231153</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,31 +10662,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>15.83804904622843</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>288.4091825776746</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.7164198729829</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10911,19 +10911,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>306.1147370139961</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776749</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11148,19 +11148,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>5.100663089358989</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.7164198729829</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11385,13 +11385,13 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>9.90051268448542</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208061</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23416,25 +23416,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>51.20659255227456</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23668,10 +23668,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>116.2512977033343</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,16 +23704,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>181.987955235531</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>157.489342217427</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,10 +23902,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>119.5918126645902</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23935,25 +23935,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24133,7 +24133,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>40.90365321433657</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,10 +24142,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>85.95281337053856</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24364,13 +24364,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>63.7771558793186</v>
+        <v>197.372409610328</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>119.1705146830128</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24646,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>103.0576765518765</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24850,10 +24850,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24883,28 +24883,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>82.39383318338523</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>22.82138760271857</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,19 +25072,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>64.30500338171927</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>133.6473124456551</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -25129,10 +25129,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25312,19 +25312,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>31.192629243504</v>
+        <v>61.42264700896748</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25555,7 +25555,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25567,7 +25567,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,25 +25594,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>5.178741663427957</v>
       </c>
       <c r="U40" t="n">
-        <v>24.79953099072742</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,19 +25831,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>108.8037317403972</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25852,7 +25852,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>142.2668119631475</v>
       </c>
     </row>
     <row r="44">
@@ -26020,28 +26020,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675271</v>
       </c>
       <c r="I46" t="n">
-        <v>77.06777566241277</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,10 +26071,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26083,13 +26083,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>209.9635235055746</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>757213.0894325102</v>
+        <v>757213.0894325104</v>
       </c>
     </row>
     <row r="6">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>757213.0894325102</v>
+        <v>757213.0894325104</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>757213.0894325102</v>
+        <v>757213.0894325105</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26314,46 @@
         <v>656833.4158914267</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.4158914266</v>
       </c>
       <c r="D2" t="n">
         <v>656833.4158914267</v>
       </c>
       <c r="E2" t="n">
-        <v>625646.4955803342</v>
+        <v>625646.4955803341</v>
       </c>
       <c r="F2" t="n">
-        <v>625646.4955803343</v>
+        <v>625646.4955803341</v>
       </c>
       <c r="G2" t="n">
         <v>625646.4955803341</v>
       </c>
       <c r="H2" t="n">
-        <v>625646.4955803341</v>
+        <v>625646.4955803343</v>
       </c>
       <c r="I2" t="n">
         <v>625646.495580334</v>
       </c>
       <c r="J2" t="n">
+        <v>625646.495580334</v>
+      </c>
+      <c r="K2" t="n">
         <v>625646.4955803341</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>625646.4955803342</v>
+      </c>
+      <c r="M2" t="n">
         <v>625646.495580334</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>625646.4955803341</v>
-      </c>
-      <c r="M2" t="n">
-        <v>625646.4955803341</v>
-      </c>
-      <c r="N2" t="n">
-        <v>625646.495580334</v>
       </c>
       <c r="O2" t="n">
         <v>625646.4955803341</v>
       </c>
       <c r="P2" t="n">
-        <v>625646.4955803341</v>
+        <v>625646.4955803343</v>
       </c>
     </row>
     <row r="3">
@@ -26384,10 +26384,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>156359.7437417553</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="C4" t="n">
-        <v>156359.7437417554</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="D4" t="n">
-        <v>156359.7437417553</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>14711.5006543095</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>14711.50065430942</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>14711.50065430943</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="L4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="M4" t="n">
-        <v>14711.50065430942</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="N4" t="n">
-        <v>14711.50065430943</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="O4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.66962143915</v>
       </c>
       <c r="P4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.66962143922</v>
       </c>
     </row>
     <row r="5">
@@ -26482,34 +26482,34 @@
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-172353.2851282825</v>
+        <v>-172768.4996377497</v>
       </c>
       <c r="C6" t="n">
-        <v>417614.5940862617</v>
+        <v>417199.3795767946</v>
       </c>
       <c r="D6" t="n">
-        <v>417614.5940862619</v>
+        <v>417199.3795767947</v>
       </c>
       <c r="E6" t="n">
-        <v>-6212.367499588057</v>
+        <v>-6546.536466717778</v>
       </c>
       <c r="F6" t="n">
-        <v>518947.6689773082</v>
+        <v>518613.5000101784</v>
       </c>
       <c r="G6" t="n">
-        <v>518947.668977308</v>
+        <v>518613.5000101784</v>
       </c>
       <c r="H6" t="n">
-        <v>518947.668977308</v>
+        <v>518613.5000101787</v>
       </c>
       <c r="I6" t="n">
-        <v>518947.6689773077</v>
+        <v>518613.5000101783</v>
       </c>
       <c r="J6" t="n">
-        <v>342524.449784715</v>
+        <v>342190.2808175854</v>
       </c>
       <c r="K6" t="n">
-        <v>518947.6689773079</v>
+        <v>518613.5000101784</v>
       </c>
       <c r="L6" t="n">
-        <v>518947.6689773079</v>
+        <v>518613.5000101785</v>
       </c>
       <c r="M6" t="n">
-        <v>384146.6537434708</v>
+        <v>383812.4847763411</v>
       </c>
       <c r="N6" t="n">
-        <v>518947.6689773079</v>
+        <v>518613.5000101784</v>
       </c>
       <c r="O6" t="n">
-        <v>518947.6689773079</v>
+        <v>518613.5000101783</v>
       </c>
       <c r="P6" t="n">
-        <v>518947.6689773079</v>
+        <v>518613.5000101785</v>
       </c>
     </row>
   </sheetData>
@@ -26741,7 +26741,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
@@ -26750,34 +26750,34 @@
         <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26790,7 +26790,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26811,25 +26811,25 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="P4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
     </row>
   </sheetData>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>39.53802575917729</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>354.790723862835</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27540,10 +27540,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27552,13 +27552,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,22 +27579,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>14.29463023043692</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>172.5673120683231</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>88.23862770393407</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>277.2678170036473</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,25 +27816,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>98.94636677641765</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>56.69292621882479</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>219.830452311409</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>303.6386325679108</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28014,10 +28014,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28068,10 +28068,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>91.88847557641941</v>
       </c>
       <c r="W10" t="n">
-        <v>80.5048302339992</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -29281,7 +29281,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>-1.285791304285841e-12</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>-1.392663762089796e-12</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -30286,7 +30286,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>-9.447307911209932e-13</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -31039,13 +31039,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31063,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31151,16 +31151,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31221,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31236,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,7 +32701,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32710,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32783,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32874,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,7 +32938,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,31 +32947,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33020,31 +33020,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,7 +33111,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,7 +33175,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,31 +33184,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33257,31 +33257,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,7 +33348,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,7 +33412,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33421,31 +33421,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33494,31 +33494,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,7 +33585,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,7 +33649,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33658,31 +33658,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33731,31 +33731,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,7 +33822,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,7 +33886,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33895,31 +33895,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33968,31 +33968,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,7 +34059,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34123,7 +34123,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34132,31 +34132,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34205,31 +34205,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,7 +34296,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34360,7 +34360,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34369,31 +34369,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34442,31 +34442,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,7 +34533,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34711,10 +34711,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34790,13 +34790,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328939</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047527</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35027,7 +35027,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>137.9476282330536</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>434.7644551367891</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
@@ -35656,7 +35656,7 @@
         <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081129</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
         <v>713.1546070951472</v>
@@ -35729,16 +35729,16 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>756.5322523145245</v>
+        <v>457.5346514843356</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
         <v>207.0934149315247</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>264.7306875349194</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>609.76039124675</v>
+        <v>397.5324193126795</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,25 +36361,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.499584150206</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>455.6595083608449</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,25 +36598,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>437.8086013087276</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507416</v>
+        <v>246.8854746890071</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,25 +36835,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>180.0507982277214</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37008,7 +37008,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,25 +37072,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>570.7728848187828</v>
+        <v>482.1033309642235</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,19 +37224,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37245,7 +37245,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,25 +37309,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>326.2624260966948</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O36" t="n">
-        <v>570.7728848187828</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,19 +37461,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37482,7 +37482,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,25 +37546,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>639.309310412009</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091996</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,19 +37698,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37719,7 +37719,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,25 +37783,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>93.11369587443312</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,19 +37935,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37956,7 +37956,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,22 +38020,22 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
         <v>59.82538970349858</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>343.0950860824984</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523309</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,19 +38172,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38193,7 +38193,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3022211.345532454</v>
+        <v>3027150.608381485</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>237.9332843063845</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>6.283679164003906</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -825,13 +825,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>63.57678144609353</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>150.5979763390387</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>382.3261341926572</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>16.22208425994155</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -955,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>59.66385641544525</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>133.9566202902064</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1147,7 +1147,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.78417002079501</v>
+        <v>210.62473717415</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481181</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>5.983388191317354</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250821</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229337</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>176.0251356438854</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.85862067621662</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491437</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896911</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113178</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,13 +1530,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1545,10 +1545,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>97.51043302167571</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>10.72595656484939</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1624,10 +1624,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>5.562624396425115</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>204.1291651532051</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>199.8217265445594</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>126.9307399414726</v>
       </c>
       <c r="X22" t="n">
-        <v>143.3158222056512</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>203.8435192151922</v>
+        <v>15.9328547480722</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2766,10 +2766,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2800,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722607</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>271.7818641996879</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>211.4447202405411</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>143.3158222056514</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3717,19 +3717,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>91.94988401775056</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>203.8435192151918</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>73.95273020923028</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4191,7 +4191,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1187.828354776384</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="C2" t="n">
-        <v>818.8658378359718</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="D2" t="n">
-        <v>460.6001392292213</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="E2" t="n">
-        <v>74.81188663097703</v>
+        <v>1276.695321531225</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>865.7094167416178</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>447.7456086398047</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2690.801940347511</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2690.801940347511</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2690.801940347511</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2690.801940347511</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2338.033285077397</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1964.567526816317</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>1574.428194840505</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="3">
@@ -4409,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064342</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="D4" t="n">
-        <v>728.1289842064342</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="E4" t="n">
-        <v>663.910013048764</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="F4" t="n">
-        <v>517.0200655508536</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="G4" t="n">
         <v>348.0202652891861</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>500.1394333084171</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1689.203741822952</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="C5" t="n">
-        <v>1320.241224882541</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="D5" t="n">
-        <v>961.9755262757901</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E5" t="n">
-        <v>961.9755262757901</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F5" t="n">
-        <v>550.9896214861826</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>2134.880026519314</v>
       </c>
       <c r="W5" t="n">
-        <v>2465.942913862886</v>
+        <v>1782.1113712492</v>
       </c>
       <c r="X5" t="n">
-        <v>2465.942913862886</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="Y5" t="n">
-        <v>2075.803581887074</v>
+        <v>1018.506281012309</v>
       </c>
     </row>
     <row r="6">
@@ -4643,22 +4643,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615927</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414846</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="C7" t="n">
-        <v>698.7120650600561</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>698.7120650600561</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>550.798971477663</v>
+        <v>369.8327295799423</v>
       </c>
       <c r="F7" t="n">
-        <v>403.9090239797526</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>234.9092237180851</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>234.9092237180851</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4734,43 +4734,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="X7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Y7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064341</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>802.0401021781393</v>
+        <v>631.9064409481871</v>
       </c>
       <c r="C8" t="n">
-        <v>433.0775852377275</v>
+        <v>631.9064409481871</v>
       </c>
       <c r="D8" t="n">
-        <v>74.81188663097699</v>
+        <v>273.6407423414366</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097699</v>
+        <v>273.6407423414366</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177351</v>
+        <v>266.6952415922331</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224071</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977173</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642688</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791251</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548714</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2636.076575092838</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T8" t="n">
-        <v>2636.076575092838</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U8" t="n">
-        <v>2636.076575092838</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="V8" t="n">
-        <v>2305.013687749267</v>
+        <v>2134.880026519314</v>
       </c>
       <c r="W8" t="n">
-        <v>1952.245032479153</v>
+        <v>1782.1113712492</v>
       </c>
       <c r="X8" t="n">
-        <v>1578.779274218073</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="Y8" t="n">
-        <v>1188.639942242261</v>
+        <v>1018.506281012309</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204942</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615926</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572642</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315295</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414846</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.07275543519</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.317569050018</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>216.0380259561513</v>
+        <v>520.9088977430001</v>
       </c>
       <c r="C10" t="n">
-        <v>216.0380259561513</v>
+        <v>351.9727148150932</v>
       </c>
       <c r="D10" t="n">
-        <v>65.92138654381554</v>
+        <v>201.8560754027575</v>
       </c>
       <c r="E10" t="n">
-        <v>65.92138654381554</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>65.92138654381554</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>65.92138654381554</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>65.92138654381554</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>65.92138654381554</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477908</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658206</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502495</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594895</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064336</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600555</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600555</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600555</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600555</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600555</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>444.0275768541686</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>444.0275768541686</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X10" t="n">
-        <v>216.0380259561513</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y10" t="n">
-        <v>216.0380259561513</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="11">
@@ -5023,37 +5023,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5120,25 +5120,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>562.7003690904323</v>
+        <v>1089.278254829645</v>
       </c>
       <c r="C13" t="n">
-        <v>562.7003690904323</v>
+        <v>920.3420719017386</v>
       </c>
       <c r="D13" t="n">
-        <v>562.7003690904323</v>
+        <v>770.2254324894028</v>
       </c>
       <c r="E13" t="n">
-        <v>562.7003690904323</v>
+        <v>622.3123389070097</v>
       </c>
       <c r="F13" t="n">
-        <v>415.8104215925219</v>
+        <v>475.4223914090993</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>307.2470697289199</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1009.867621687013</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>755.183133481126</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W13" t="n">
-        <v>755.183133481126</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X13" t="n">
-        <v>755.183133481126</v>
+        <v>1270.926719659885</v>
       </c>
       <c r="Y13" t="n">
-        <v>744.3488339206721</v>
+        <v>1270.926719659885</v>
       </c>
     </row>
     <row r="14">
@@ -5254,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5305,25 +5305,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277032</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341671</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126628</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1632.773754790661</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>2302.23751609332</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2507.259996875529</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5439,19 +5439,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5460,19 +5460,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473454</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765184</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V16" t="n">
-        <v>531.3977182706316</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W16" t="n">
         <v>325.2066423583032</v>
@@ -5515,22 +5515,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
         <v>4454.632848899127</v>
@@ -5603,7 +5603,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
         <v>1558.376451307619</v>
@@ -5649,7 +5649,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
         <v>97.21709146028584</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1387.841167119728</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>1387.841167119728</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>1186.00103929694</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>896.5838692599799</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>668.5943183619626</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>447.8017392184324</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5746,34 +5746,34 @@
         <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5785,19 +5785,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5831,22 +5831,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1514.038914395486</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>713.5778697504956</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>544.6416868225887</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028584</v>
@@ -5913,19 +5913,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473454</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765184</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706316</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W22" t="n">
-        <v>241.980548233671</v>
+        <v>1116.018913724265</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>1116.018913724265</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>895.2263345807353</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805464</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
@@ -5992,7 +5992,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6004,37 +6004,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6056,34 +6056,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,7 +6123,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C25" t="n">
         <v>97.21709146028584</v>
@@ -6150,13 +6150,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.210845262961</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011506</v>
+        <v>1259.037062672588</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>1004.352574466701</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>714.9354044297402</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>486.9458535317228</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="26">
@@ -6217,19 +6217,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6314,7 +6314,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6414,7 +6414,7 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
         <v>869.3083006011506</v>
@@ -6445,49 +6445,49 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231263</v>
@@ -6530,28 +6530,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>414.0663679705858</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>245.1301850426789</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>245.1301850426789</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241921</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688036</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799328</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471155</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>1049.608084974663</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.48306298006</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585743</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119724</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1387.841167119724</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1387.841167119724</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>1098.712528333282</v>
+        <v>800.6837097077201</v>
       </c>
       <c r="V31" t="n">
-        <v>1098.712528333282</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="W31" t="n">
-        <v>809.2953582963216</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X31" t="n">
-        <v>595.7148328008255</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y31" t="n">
-        <v>595.7148328008255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6694,10 +6694,10 @@
         <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
@@ -6706,7 +6706,7 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6718,34 +6718,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6776,7 +6776,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6788,7 +6788,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6891,19 +6891,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6928,40 +6928,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6970,19 +6970,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7013,7 +7013,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7025,7 +7025,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
         <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011506</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952637</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W37" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7174,28 +7174,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7207,19 +7207,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7262,7 +7262,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7365,19 +7365,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>982.3321745379599</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>727.647686332073</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>727.647686332073</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7390,31 +7390,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
@@ -7423,7 +7423,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7432,7 +7432,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7499,7 +7499,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>732.358329063101</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G43" t="n">
         <v>97.21709146028584</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011506</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952637</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2066423583032</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>1134.799373036871</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>914.0067938933407</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7839,13 +7839,13 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
         <v>97.21709146028584</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8072,13 +8072,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783515</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8300,7 +8300,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8309,7 +8309,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783527</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8549,10 +8549,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747317</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8774,25 +8774,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>360.5026862907255</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9014,22 +9014,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>29.47535963978331</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298298</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9485,7 +9485,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>288.4091825776761</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776744</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928333</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10603,7 +10603,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714832</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298295</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -23418,13 +23418,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>51.40339534586042</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,25 +23466,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>207.8586967872454</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>192.3581855871781</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>82.39383318338588</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>52.3159167792686</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24177,25 +24177,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>159.5922583951184</v>
       </c>
       <c r="X22" t="n">
-        <v>82.39383318338591</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24366,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24414,13 +24414,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>82.39383318338511</v>
+        <v>270.3044976505051</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24654,10 +24654,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>14.45548819888944</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>14.26493514849605</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25362,10 +25362,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25605,19 +25605,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>194.2874683808268</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25836,25 +25836,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>82.39383318338557</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>151.7569251798069</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>757213.0894325102</v>
+        <v>757213.0894325103</v>
       </c>
     </row>
     <row r="16">
@@ -26313,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.4158914266</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.4158914264</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.4158914268</v>
       </c>
       <c r="E2" t="n">
+        <v>625646.4955803338</v>
+      </c>
+      <c r="F2" t="n">
+        <v>625646.4955803342</v>
+      </c>
+      <c r="G2" t="n">
+        <v>625646.4955803341</v>
+      </c>
+      <c r="H2" t="n">
+        <v>625646.4955803339</v>
+      </c>
+      <c r="I2" t="n">
+        <v>625646.4955803341</v>
+      </c>
+      <c r="J2" t="n">
         <v>625646.495580334</v>
       </c>
-      <c r="F2" t="n">
+      <c r="K2" t="n">
+        <v>625646.4955803341</v>
+      </c>
+      <c r="L2" t="n">
         <v>625646.495580334</v>
       </c>
-      <c r="G2" t="n">
-        <v>625646.495580334</v>
-      </c>
-      <c r="H2" t="n">
-        <v>625646.4955803341</v>
-      </c>
-      <c r="I2" t="n">
-        <v>625646.495580334</v>
-      </c>
-      <c r="J2" t="n">
-        <v>625646.4955803341</v>
-      </c>
-      <c r="K2" t="n">
-        <v>625646.4955803338</v>
-      </c>
-      <c r="L2" t="n">
-        <v>625646.4955803341</v>
-      </c>
       <c r="M2" t="n">
-        <v>625646.495580334</v>
+        <v>625646.4955803342</v>
       </c>
       <c r="N2" t="n">
         <v>625646.495580334</v>
@@ -26355,7 +26355,7 @@
         <v>625646.4955803341</v>
       </c>
       <c r="P2" t="n">
-        <v>625646.4955803341</v>
+        <v>625646.4955803342</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768965</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.42310613632435e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925927</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26420,16 +26420,16 @@
         <v>156774.9582512226</v>
       </c>
       <c r="C4" t="n">
+        <v>156774.9582512227</v>
+      </c>
+      <c r="D4" t="n">
         <v>156774.9582512226</v>
-      </c>
-      <c r="D4" t="n">
-        <v>156774.9582512227</v>
       </c>
       <c r="E4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.66962143915</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
         <v>15045.6696214391</v>
@@ -26475,40 +26475,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340943</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26524,46 +26524,46 @@
         <v>-172768.49963775</v>
       </c>
       <c r="C6" t="n">
-        <v>417199.3795767945</v>
+        <v>417199.3795767942</v>
       </c>
       <c r="D6" t="n">
-        <v>417199.379576795</v>
+        <v>417199.3795767948</v>
       </c>
       <c r="E6" t="n">
-        <v>-7521.127726439871</v>
+        <v>-6643.995592690408</v>
       </c>
       <c r="F6" t="n">
-        <v>517638.9087504565</v>
+        <v>518516.0408842064</v>
       </c>
       <c r="G6" t="n">
-        <v>517638.9087504566</v>
+        <v>518516.0408842062</v>
       </c>
       <c r="H6" t="n">
-        <v>517638.9087504568</v>
+        <v>518516.040884206</v>
       </c>
       <c r="I6" t="n">
-        <v>517638.9087504563</v>
+        <v>518516.0408842062</v>
       </c>
       <c r="J6" t="n">
-        <v>341215.6895578641</v>
+        <v>342092.8216916132</v>
       </c>
       <c r="K6" t="n">
-        <v>517638.9087504564</v>
+        <v>518516.0408842062</v>
       </c>
       <c r="L6" t="n">
-        <v>517638.9087504568</v>
+        <v>518516.0408842061</v>
       </c>
       <c r="M6" t="n">
-        <v>382837.8935166194</v>
+        <v>383715.0256503691</v>
       </c>
       <c r="N6" t="n">
-        <v>517638.9087504566</v>
+        <v>518516.0408842061</v>
       </c>
       <c r="O6" t="n">
-        <v>517638.9087504568</v>
+        <v>518516.0408842062</v>
       </c>
       <c r="P6" t="n">
-        <v>517638.9087504568</v>
+        <v>518516.0408842064</v>
       </c>
     </row>
   </sheetData>
@@ -26737,46 +26737,46 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="C3" t="n">
+        <v>377.7436642170865</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
-      <c r="C3" t="n">
-        <v>377.7436642170866</v>
-      </c>
-      <c r="D3" t="n">
-        <v>377.7436642170862</v>
-      </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541003</v>
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545551</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.638741237014</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>85.98948845797261</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>168.1320336449676</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27545,13 +27545,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>82.85718120047564</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>16.71182592001219</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27560,7 +27560,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.4077074708233681</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>397.5620857608534</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27675,13 +27675,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27776,10 +27776,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831826</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>1.009001502131838</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27867,7 +27867,7 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>203.159432846645</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>168.4323246176542</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>3.806844538051848</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>33.34133851232043</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28070,13 +28070,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28344,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -29520,7 +29520,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -29693,7 +29693,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>-2.379234433664574e-12</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,16 +31278,16 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K5" t="n">
         <v>193.1674799081577</v>
@@ -31299,25 +31299,25 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,31 +31357,31 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N6" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479577</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M7" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N7" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340044</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140998</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5445733255446</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727434</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081575</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630667</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405364</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338301</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119863</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954664</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044135</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633787</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727379</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473546</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472035</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141101</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188906</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890686</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396467</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478005</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.870296998312</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736698</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923045</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479576</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639064</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034976</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131471</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372662</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619147</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078603</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644435</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492003</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813572</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302231</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175834</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383791</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678002</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.6281993970116</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695334</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197221</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315606</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32168,10 +32168,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
         <v>227.9948068710956</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32642,10 +32642,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,10 +32700,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32712,37 +32712,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32818,7 +32818,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,22 +35014,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770687</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262129</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35096,13 +35096,13 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N7" t="n">
         <v>148.370846145888</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181309</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343417</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435299</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060962</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492234</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530449</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116796</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898687</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770682</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713855</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262936</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.31973343389</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245896</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735645</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535805</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713946</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850084</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535654</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.866414655798</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873139</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>609.7603912467498</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490663</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.129440800466</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980127</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>117.4883924248574</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35971,16 +35971,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,19 +36205,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>537.6668875337003</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,16 +36682,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,16 +36919,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556194</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,16 +37156,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221125</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37323,13 +37323,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109128</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,16 +37393,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,16 +37630,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,16 +37867,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
